--- a/hypatia/examples/Planning_teaching/parameters/parameters_reg3.xlsx
+++ b/hypatia/examples/Planning_teaching/parameters/parameters_reg3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10530003_polimi_it/Documents/Research/MODELS/Hypatia_teaching_version/hypatia/examples/Planning_teaching/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="11_0DB11C46B20C27C484FE6623F9637CFB4A4B91BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C12F2F6-95DD-4335-AD9C-9A97749FABA2}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_0DB11C46B20C27C484FE6623F9637CFB4A4B91BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{036F39C9-6898-4341-AA81-67AAC31FE3D3}"/>
   <bookViews>
-    <workbookView xWindow="-4680" yWindow="-21720" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4665" yWindow="-21600" windowWidth="19410" windowHeight="20985" firstSheet="36" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F_OM" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,7 @@
     <sheet name="Renewable_tech_selection" sheetId="36" r:id="rId36"/>
     <sheet name="Min_RES_production" sheetId="37" r:id="rId37"/>
     <sheet name="Min_RES_electric_penetration" sheetId="38" r:id="rId38"/>
+    <sheet name="Max_land_usage" sheetId="39" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="50">
   <si>
     <t>Tech_category</t>
   </si>
@@ -226,7 +227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +247,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -294,6 +300,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -8093,7 +8105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:M267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
@@ -18487,11 +18499,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A244:A267"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A28:A51"/>
-    <mergeCell ref="A124:A147"/>
-    <mergeCell ref="A148:A171"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A172:A195"/>
     <mergeCell ref="A196:A219"/>
@@ -18500,6 +18507,11 @@
     <mergeCell ref="A4:A27"/>
     <mergeCell ref="A100:A123"/>
     <mergeCell ref="A76:A99"/>
+    <mergeCell ref="A244:A267"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A28:A51"/>
+    <mergeCell ref="A124:A147"/>
+    <mergeCell ref="A148:A171"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24139,6 +24151,506 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB94244-6E41-4E0E-B2F2-39BFC7F50863}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1E+20</v>
+      </c>
+      <c r="C4">
+        <v>1E+20</v>
+      </c>
+      <c r="D4">
+        <v>1E+20</v>
+      </c>
+      <c r="E4">
+        <v>1E+20</v>
+      </c>
+      <c r="F4">
+        <v>1E+20</v>
+      </c>
+      <c r="G4">
+        <v>1E+20</v>
+      </c>
+      <c r="H4">
+        <v>1E+20</v>
+      </c>
+      <c r="I4">
+        <v>1E+20</v>
+      </c>
+      <c r="J4">
+        <v>1E+20</v>
+      </c>
+      <c r="K4">
+        <v>1E+20</v>
+      </c>
+      <c r="L4">
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>1E+20</v>
+      </c>
+      <c r="C5">
+        <v>1E+20</v>
+      </c>
+      <c r="D5">
+        <v>1E+20</v>
+      </c>
+      <c r="E5">
+        <v>1E+20</v>
+      </c>
+      <c r="F5">
+        <v>1E+20</v>
+      </c>
+      <c r="G5">
+        <v>1E+20</v>
+      </c>
+      <c r="H5">
+        <v>1E+20</v>
+      </c>
+      <c r="I5">
+        <v>1E+20</v>
+      </c>
+      <c r="J5">
+        <v>1E+20</v>
+      </c>
+      <c r="K5">
+        <v>1E+20</v>
+      </c>
+      <c r="L5">
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>1E+20</v>
+      </c>
+      <c r="C6">
+        <v>1E+20</v>
+      </c>
+      <c r="D6">
+        <v>1E+20</v>
+      </c>
+      <c r="E6">
+        <v>1E+20</v>
+      </c>
+      <c r="F6">
+        <v>1E+20</v>
+      </c>
+      <c r="G6">
+        <v>1E+20</v>
+      </c>
+      <c r="H6">
+        <v>1E+20</v>
+      </c>
+      <c r="I6">
+        <v>1E+20</v>
+      </c>
+      <c r="J6">
+        <v>1E+20</v>
+      </c>
+      <c r="K6">
+        <v>1E+20</v>
+      </c>
+      <c r="L6">
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1E+20</v>
+      </c>
+      <c r="C7">
+        <v>1E+20</v>
+      </c>
+      <c r="D7">
+        <v>1E+20</v>
+      </c>
+      <c r="E7">
+        <v>1E+20</v>
+      </c>
+      <c r="F7">
+        <v>1E+20</v>
+      </c>
+      <c r="G7">
+        <v>1E+20</v>
+      </c>
+      <c r="H7">
+        <v>1E+20</v>
+      </c>
+      <c r="I7">
+        <v>1E+20</v>
+      </c>
+      <c r="J7">
+        <v>1E+20</v>
+      </c>
+      <c r="K7">
+        <v>1E+20</v>
+      </c>
+      <c r="L7">
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>1E+20</v>
+      </c>
+      <c r="C8">
+        <v>1E+20</v>
+      </c>
+      <c r="D8">
+        <v>1E+20</v>
+      </c>
+      <c r="E8">
+        <v>1E+20</v>
+      </c>
+      <c r="F8">
+        <v>1E+20</v>
+      </c>
+      <c r="G8">
+        <v>1E+20</v>
+      </c>
+      <c r="H8">
+        <v>1E+20</v>
+      </c>
+      <c r="I8">
+        <v>1E+20</v>
+      </c>
+      <c r="J8">
+        <v>1E+20</v>
+      </c>
+      <c r="K8">
+        <v>1E+20</v>
+      </c>
+      <c r="L8">
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>1E+20</v>
+      </c>
+      <c r="C9">
+        <v>1E+20</v>
+      </c>
+      <c r="D9">
+        <v>1E+20</v>
+      </c>
+      <c r="E9">
+        <v>1E+20</v>
+      </c>
+      <c r="F9">
+        <v>1E+20</v>
+      </c>
+      <c r="G9">
+        <v>1E+20</v>
+      </c>
+      <c r="H9">
+        <v>1E+20</v>
+      </c>
+      <c r="I9">
+        <v>1E+20</v>
+      </c>
+      <c r="J9">
+        <v>1E+20</v>
+      </c>
+      <c r="K9">
+        <v>1E+20</v>
+      </c>
+      <c r="L9">
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1E+20</v>
+      </c>
+      <c r="C10">
+        <v>1E+20</v>
+      </c>
+      <c r="D10">
+        <v>1E+20</v>
+      </c>
+      <c r="E10">
+        <v>1E+20</v>
+      </c>
+      <c r="F10">
+        <v>1E+20</v>
+      </c>
+      <c r="G10">
+        <v>1E+20</v>
+      </c>
+      <c r="H10">
+        <v>1E+20</v>
+      </c>
+      <c r="I10">
+        <v>1E+20</v>
+      </c>
+      <c r="J10">
+        <v>1E+20</v>
+      </c>
+      <c r="K10">
+        <v>1E+20</v>
+      </c>
+      <c r="L10">
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>1E+20</v>
+      </c>
+      <c r="C11">
+        <v>1E+20</v>
+      </c>
+      <c r="D11">
+        <v>1E+20</v>
+      </c>
+      <c r="E11">
+        <v>1E+20</v>
+      </c>
+      <c r="F11">
+        <v>1E+20</v>
+      </c>
+      <c r="G11">
+        <v>1E+20</v>
+      </c>
+      <c r="H11">
+        <v>1E+20</v>
+      </c>
+      <c r="I11">
+        <v>1E+20</v>
+      </c>
+      <c r="J11">
+        <v>1E+20</v>
+      </c>
+      <c r="K11">
+        <v>1E+20</v>
+      </c>
+      <c r="L11">
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>1E+20</v>
+      </c>
+      <c r="C12">
+        <v>1E+20</v>
+      </c>
+      <c r="D12">
+        <v>1E+20</v>
+      </c>
+      <c r="E12">
+        <v>1E+20</v>
+      </c>
+      <c r="F12">
+        <v>1E+20</v>
+      </c>
+      <c r="G12">
+        <v>1E+20</v>
+      </c>
+      <c r="H12">
+        <v>1E+20</v>
+      </c>
+      <c r="I12">
+        <v>1E+20</v>
+      </c>
+      <c r="J12">
+        <v>1E+20</v>
+      </c>
+      <c r="K12">
+        <v>1E+20</v>
+      </c>
+      <c r="L12">
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>1E+20</v>
+      </c>
+      <c r="C13">
+        <v>1E+20</v>
+      </c>
+      <c r="D13">
+        <v>1E+20</v>
+      </c>
+      <c r="E13">
+        <v>1E+20</v>
+      </c>
+      <c r="F13">
+        <v>1E+20</v>
+      </c>
+      <c r="G13">
+        <v>1E+20</v>
+      </c>
+      <c r="H13">
+        <v>1E+20</v>
+      </c>
+      <c r="I13">
+        <v>1E+20</v>
+      </c>
+      <c r="J13">
+        <v>1E+20</v>
+      </c>
+      <c r="K13">
+        <v>1E+20</v>
+      </c>
+      <c r="L13">
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>1E+20</v>
+      </c>
+      <c r="C14">
+        <v>1E+20</v>
+      </c>
+      <c r="D14">
+        <v>1E+20</v>
+      </c>
+      <c r="E14">
+        <v>1E+20</v>
+      </c>
+      <c r="F14">
+        <v>1E+20</v>
+      </c>
+      <c r="G14">
+        <v>1E+20</v>
+      </c>
+      <c r="H14">
+        <v>1E+20</v>
+      </c>
+      <c r="I14">
+        <v>1E+20</v>
+      </c>
+      <c r="J14">
+        <v>1E+20</v>
+      </c>
+      <c r="K14">
+        <v>1E+20</v>
+      </c>
+      <c r="L14">
+        <v>1E+20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
